--- a/medicine/Pharmacie/Forest_Laboratories/Forest_Laboratories.xlsx
+++ b/medicine/Pharmacie/Forest_Laboratories/Forest_Laboratories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forest Laboratories était une entreprise pharmaceutique américaine, basée à New York.
-La société a été cotée NYSE jusqu'à son rachat par Actavis en 2014[1].
+La société a été cotée NYSE jusqu'à son rachat par Actavis en 2014.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 8 janvier 2014, Forest Laboratories annonce le rachat de l'entreprise pharmaceutique Aptalis, spécialisé dans les traitements des systèmes digestifs et respiratoires, pour 2,9 milliards de dollars[2]. 
-En février 2014, Actavis annonce qu'il va racheter Forest Laboratories pour 25 milliards de dollars[3]. En avril 2014, avant d'être intégré à Actavis, Forest Labs annonce l'acquisition de Furiex Pharma pour 1,46 milliard de dollars[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 8 janvier 2014, Forest Laboratories annonce le rachat de l'entreprise pharmaceutique Aptalis, spécialisé dans les traitements des systèmes digestifs et respiratoires, pour 2,9 milliards de dollars. 
+En février 2014, Actavis annonce qu'il va racheter Forest Laboratories pour 25 milliards de dollars. En avril 2014, avant d'être intégré à Actavis, Forest Labs annonce l'acquisition de Furiex Pharma pour 1,46 milliard de dollars.
 </t>
         </is>
       </c>
